--- a/Proyectos/2015/11/P1334 - DA, CCON, Rocio Montes_OC/Planeación/PTL_Plan_proyecto.xlsx
+++ b/Proyectos/2015/11/P1334 - DA, CCON, Rocio Montes_OC/Planeación/PTL_Plan_proyecto.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -679,6 +679,30 @@
   </si>
   <si>
     <t>Ocurrido</t>
+  </si>
+  <si>
+    <t>Reunion de compromiso</t>
+  </si>
+  <si>
+    <t>Marisol Ornelas, Oriana Campos, Jovanny Zepeda, Ricardo Novela,</t>
+  </si>
+  <si>
+    <t>obtener compromiso de proyecto</t>
+  </si>
+  <si>
+    <t>semanalmente</t>
+  </si>
+  <si>
+    <t>reunion de monitoreo</t>
+  </si>
+  <si>
+    <t>Ricardo Novela, Jovanny Zepeda</t>
+  </si>
+  <si>
+    <t>revisar resultados de métricas</t>
+  </si>
+  <si>
+    <t>quincenalmente</t>
   </si>
 </sst>
 </file>
@@ -1227,42 +1251,6 @@
   </cellStyleXfs>
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1510,19 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1542,6 +1517,55 @@
     </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2555,107 +2579,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" style="13"/>
-    <col min="2" max="2" width="8.85546875" style="13"/>
-    <col min="3" max="3" width="34.140625" style="13"/>
-    <col min="4" max="254" width="11.42578125" style="13"/>
-    <col min="255" max="255" width="2.7109375" style="13"/>
-    <col min="256" max="256" width="19.7109375" style="13"/>
-    <col min="257" max="257" width="8.85546875" style="13"/>
-    <col min="258" max="258" width="34.140625" style="13"/>
-    <col min="259" max="259" width="22.85546875" style="13"/>
-    <col min="260" max="510" width="11.42578125" style="13"/>
-    <col min="511" max="511" width="2.7109375" style="13"/>
-    <col min="512" max="512" width="19.7109375" style="13"/>
-    <col min="513" max="513" width="8.85546875" style="13"/>
-    <col min="514" max="514" width="34.140625" style="13"/>
-    <col min="515" max="515" width="22.85546875" style="13"/>
-    <col min="516" max="766" width="11.42578125" style="13"/>
-    <col min="767" max="767" width="2.7109375" style="13"/>
-    <col min="768" max="768" width="19.7109375" style="13"/>
-    <col min="769" max="769" width="8.85546875" style="13"/>
-    <col min="770" max="770" width="34.140625" style="13"/>
-    <col min="771" max="771" width="22.85546875" style="13"/>
-    <col min="772" max="1022" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="20" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="34.140625" style="1"/>
+    <col min="4" max="254" width="11.42578125" style="1"/>
+    <col min="255" max="255" width="2.7109375" style="1"/>
+    <col min="256" max="256" width="19.7109375" style="1"/>
+    <col min="257" max="257" width="8.85546875" style="1"/>
+    <col min="258" max="258" width="34.140625" style="1"/>
+    <col min="259" max="259" width="22.85546875" style="1"/>
+    <col min="260" max="510" width="11.42578125" style="1"/>
+    <col min="511" max="511" width="2.7109375" style="1"/>
+    <col min="512" max="512" width="19.7109375" style="1"/>
+    <col min="513" max="513" width="8.85546875" style="1"/>
+    <col min="514" max="514" width="34.140625" style="1"/>
+    <col min="515" max="515" width="22.85546875" style="1"/>
+    <col min="516" max="766" width="11.42578125" style="1"/>
+    <col min="767" max="767" width="2.7109375" style="1"/>
+    <col min="768" max="768" width="19.7109375" style="1"/>
+    <col min="769" max="769" width="8.85546875" style="1"/>
+    <col min="770" max="770" width="34.140625" style="1"/>
+    <col min="771" max="771" width="22.85546875" style="1"/>
+    <col min="772" max="1022" width="11.42578125" style="1"/>
     <col min="1023" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
     </row>
     <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="124"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="122"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="127"/>
+      <c r="C6" s="122"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="128">
+      <c r="B7" s="121">
         <v>42338</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="121"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="127"/>
+      <c r="C8" s="122"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="128">
+      <c r="B9" s="121">
         <v>42338</v>
       </c>
-      <c r="C9" s="128"/>
+      <c r="C9" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2683,22 +2707,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="13"/>
-    <col min="2" max="2" width="57.42578125" style="13"/>
-    <col min="3" max="3" width="16.85546875" style="13"/>
-    <col min="4" max="255" width="11.42578125" style="13"/>
-    <col min="256" max="256" width="2.7109375" style="13"/>
-    <col min="257" max="257" width="28.5703125" style="13"/>
-    <col min="258" max="258" width="57.42578125" style="13"/>
-    <col min="259" max="511" width="11.42578125" style="13"/>
-    <col min="512" max="512" width="2.7109375" style="13"/>
-    <col min="513" max="513" width="28.5703125" style="13"/>
-    <col min="514" max="514" width="57.42578125" style="13"/>
-    <col min="515" max="767" width="11.42578125" style="13"/>
-    <col min="768" max="768" width="2.7109375" style="13"/>
-    <col min="769" max="769" width="28.5703125" style="13"/>
-    <col min="770" max="770" width="57.42578125" style="13"/>
-    <col min="771" max="1023" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="28.5703125" style="1"/>
+    <col min="2" max="2" width="57.42578125" style="1"/>
+    <col min="3" max="3" width="16.85546875" style="1"/>
+    <col min="4" max="255" width="11.42578125" style="1"/>
+    <col min="256" max="256" width="2.7109375" style="1"/>
+    <col min="257" max="257" width="28.5703125" style="1"/>
+    <col min="258" max="258" width="57.42578125" style="1"/>
+    <col min="259" max="511" width="11.42578125" style="1"/>
+    <col min="512" max="512" width="2.7109375" style="1"/>
+    <col min="513" max="513" width="28.5703125" style="1"/>
+    <col min="514" max="514" width="57.42578125" style="1"/>
+    <col min="515" max="767" width="11.42578125" style="1"/>
+    <col min="768" max="768" width="2.7109375" style="1"/>
+    <col min="769" max="769" width="28.5703125" style="1"/>
+    <col min="770" max="770" width="57.42578125" style="1"/>
+    <col min="771" max="1023" width="11.42578125" style="1"/>
     <col min="1024" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
@@ -3728,10 +3752,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="123"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4754,20 +4778,20 @@
       <c r="AMH2"/>
       <c r="AMI2"/>
     </row>
-    <row r="3" spans="1:1023" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:1023" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="6" t="str">
         <f>Presentación!B3</f>
         <v>P1334 - DA, CCON, Rocio Montes_OC</v>
       </c>
     </row>
     <row r="4" spans="1:1023" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="6" t="str">
         <f>Presentación!B4</f>
         <v>SOS Software</v>
       </c>
@@ -4775,220 +4799,225 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="123"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="124"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="123"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="127"/>
+      <c r="B8" s="122"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="123"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:1023" ht="42.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:1023" ht="29.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:1023" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:1023" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1023" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="7">
         <v>42338</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="7">
         <v>42338</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="7">
         <v>42338</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="7">
         <v>42338</v>
       </c>
     </row>
     <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="7">
         <v>42349</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="123"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="126"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="123"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4998,11 +5027,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -5022,45 +5046,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="13"/>
-    <col min="2" max="2" width="30.5703125" style="13"/>
-    <col min="3" max="3" width="18.42578125" style="13"/>
-    <col min="4" max="4" width="35.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="13"/>
-    <col min="6" max="6" width="17.42578125" style="13"/>
-    <col min="7" max="255" width="11.42578125" style="13"/>
-    <col min="256" max="256" width="2.7109375" style="13"/>
-    <col min="257" max="257" width="24.28515625" style="13"/>
-    <col min="258" max="258" width="30.5703125" style="13"/>
-    <col min="259" max="259" width="18.42578125" style="13"/>
-    <col min="260" max="260" width="33.85546875" style="13"/>
-    <col min="261" max="261" width="79.85546875" style="13"/>
-    <col min="262" max="511" width="11.42578125" style="13"/>
-    <col min="512" max="512" width="2.7109375" style="13"/>
-    <col min="513" max="513" width="24.28515625" style="13"/>
-    <col min="514" max="514" width="30.5703125" style="13"/>
-    <col min="515" max="515" width="18.42578125" style="13"/>
-    <col min="516" max="516" width="33.85546875" style="13"/>
-    <col min="517" max="517" width="79.85546875" style="13"/>
-    <col min="518" max="767" width="11.42578125" style="13"/>
-    <col min="768" max="768" width="2.7109375" style="13"/>
-    <col min="769" max="769" width="24.28515625" style="13"/>
-    <col min="770" max="770" width="30.5703125" style="13"/>
-    <col min="771" max="771" width="18.42578125" style="13"/>
-    <col min="772" max="772" width="33.85546875" style="13"/>
-    <col min="773" max="773" width="79.85546875" style="13"/>
-    <col min="774" max="1023" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="54.5703125" style="1"/>
+    <col min="2" max="2" width="30.5703125" style="1"/>
+    <col min="3" max="3" width="18.42578125" style="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" style="1"/>
+    <col min="6" max="6" width="17.42578125" style="1"/>
+    <col min="7" max="255" width="11.42578125" style="1"/>
+    <col min="256" max="256" width="2.7109375" style="1"/>
+    <col min="257" max="257" width="24.28515625" style="1"/>
+    <col min="258" max="258" width="30.5703125" style="1"/>
+    <col min="259" max="259" width="18.42578125" style="1"/>
+    <col min="260" max="260" width="33.85546875" style="1"/>
+    <col min="261" max="261" width="79.85546875" style="1"/>
+    <col min="262" max="511" width="11.42578125" style="1"/>
+    <col min="512" max="512" width="2.7109375" style="1"/>
+    <col min="513" max="513" width="24.28515625" style="1"/>
+    <col min="514" max="514" width="30.5703125" style="1"/>
+    <col min="515" max="515" width="18.42578125" style="1"/>
+    <col min="516" max="516" width="33.85546875" style="1"/>
+    <col min="517" max="517" width="79.85546875" style="1"/>
+    <col min="518" max="767" width="11.42578125" style="1"/>
+    <col min="768" max="768" width="2.7109375" style="1"/>
+    <col min="769" max="769" width="24.28515625" style="1"/>
+    <col min="770" max="770" width="30.5703125" style="1"/>
+    <col min="771" max="771" width="18.42578125" style="1"/>
+    <col min="772" max="772" width="33.85546875" style="1"/>
+    <col min="773" max="773" width="79.85546875" style="1"/>
+    <col min="774" max="1023" width="11.42578125" style="1"/>
     <col min="1024" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -6081,13 +6105,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -7107,37 +7131,37 @@
       <c r="AMH2"/>
       <c r="AMI2"/>
     </row>
-    <row r="3" spans="1:1023" s="34" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:1023" s="22" customFormat="1" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1023" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="115" t="s">
         <v>104</v>
       </c>
       <c r="F4"/>
@@ -8160,19 +8184,19 @@
       <c r="AMI4"/>
     </row>
     <row r="5" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="113">
         <v>3313482553</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="115" t="s">
         <v>107</v>
       </c>
       <c r="F5"/>
@@ -9195,13 +9219,13 @@
       <c r="AMI5"/>
     </row>
     <row r="6" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="133"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="116"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -10222,19 +10246,19 @@
       <c r="AMI6"/>
     </row>
     <row r="7" spans="1:1023" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="113">
         <v>3318039095</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="117" t="s">
         <v>112</v>
       </c>
       <c r="F7"/>
@@ -11257,19 +11281,19 @@
       <c r="AMI7"/>
     </row>
     <row r="8" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="116" t="s">
         <v>117</v>
       </c>
       <c r="F8"/>
@@ -12292,19 +12316,19 @@
       <c r="AMI8"/>
     </row>
     <row r="9" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="113">
         <v>3312448000</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="133" t="s">
+      <c r="E9" s="116" t="s">
         <v>120</v>
       </c>
       <c r="F9"/>
@@ -13327,11 +13351,11 @@
       <c r="AMI9"/>
     </row>
     <row r="10" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -14352,11 +14376,11 @@
       <c r="AMI10"/>
     </row>
     <row r="11" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -15377,13 +15401,13 @@
       <c r="AMI11"/>
     </row>
     <row r="12" spans="1:1023" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -16404,19 +16428,19 @@
       <c r="AMI12"/>
     </row>
     <row r="13" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="23">
         <v>5562646650</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F13"/>
@@ -17439,11 +17463,11 @@
       <c r="AMI13"/>
     </row>
     <row r="14" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
@@ -18464,11 +18488,11 @@
       <c r="AMI14"/>
     </row>
     <row r="15" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -19489,11 +19513,11 @@
       <c r="AMI15"/>
     </row>
     <row r="16" spans="1:1023" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -20513,12 +20537,12 @@
       <c r="AMH16"/>
       <c r="AMI16"/>
     </row>
-    <row r="17" spans="1:1024" s="20" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="26"/>
+    <row r="17" spans="1:1024" s="8" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="14"/>
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -20543,21 +20567,21 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
     </row>
     <row r="23" spans="1:1024" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20600,100 +20624,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -20711,58 +20735,58 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:E4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="44"/>
-    <col min="2" max="2" width="19.5703125" style="44"/>
-    <col min="3" max="3" width="19.42578125" style="44"/>
-    <col min="4" max="4" width="48.28515625" style="44"/>
-    <col min="5" max="5" width="21.5703125" style="44"/>
-    <col min="6" max="250" width="11.42578125" style="44"/>
-    <col min="251" max="251" width="2.7109375" style="44"/>
-    <col min="252" max="252" width="19" style="44"/>
-    <col min="253" max="253" width="19.5703125" style="44"/>
-    <col min="254" max="254" width="14.28515625" style="44"/>
-    <col min="255" max="255" width="19.42578125" style="44"/>
-    <col min="256" max="256" width="56" style="44"/>
-    <col min="257" max="257" width="21.5703125" style="44"/>
-    <col min="258" max="258" width="23" style="44"/>
-    <col min="259" max="259" width="16.5703125" style="44"/>
-    <col min="260" max="260" width="14.28515625" style="44"/>
-    <col min="261" max="261" width="15.28515625" style="44"/>
-    <col min="262" max="506" width="11.42578125" style="44"/>
-    <col min="507" max="507" width="2.7109375" style="44"/>
-    <col min="508" max="508" width="19" style="44"/>
-    <col min="509" max="509" width="19.5703125" style="44"/>
-    <col min="510" max="510" width="14.28515625" style="44"/>
-    <col min="511" max="511" width="19.42578125" style="44"/>
-    <col min="512" max="512" width="56" style="44"/>
-    <col min="513" max="513" width="21.5703125" style="44"/>
-    <col min="514" max="514" width="23" style="44"/>
-    <col min="515" max="515" width="16.5703125" style="44"/>
-    <col min="516" max="516" width="14.28515625" style="44"/>
-    <col min="517" max="517" width="15.28515625" style="44"/>
-    <col min="518" max="762" width="11.42578125" style="44"/>
-    <col min="763" max="763" width="2.7109375" style="44"/>
-    <col min="764" max="764" width="19" style="44"/>
-    <col min="765" max="765" width="19.5703125" style="44"/>
-    <col min="766" max="766" width="14.28515625" style="44"/>
-    <col min="767" max="767" width="19.42578125" style="44"/>
-    <col min="768" max="768" width="56" style="44"/>
-    <col min="769" max="769" width="21.5703125" style="44"/>
-    <col min="770" max="770" width="23" style="44"/>
-    <col min="771" max="771" width="16.5703125" style="44"/>
-    <col min="772" max="772" width="14.28515625" style="44"/>
-    <col min="773" max="773" width="15.28515625" style="44"/>
-    <col min="774" max="1018" width="11.42578125" style="44"/>
-    <col min="1019" max="1019" width="2.7109375" style="44"/>
-    <col min="1020" max="1020" width="19" style="44"/>
-    <col min="1021" max="1021" width="19.5703125" style="44"/>
-    <col min="1022" max="1022" width="14.28515625" style="44"/>
-    <col min="1023" max="1023" width="19.42578125" style="44"/>
+    <col min="1" max="1" width="22.85546875" style="32"/>
+    <col min="2" max="2" width="19.5703125" style="32"/>
+    <col min="3" max="3" width="19.42578125" style="32"/>
+    <col min="4" max="4" width="48.28515625" style="32"/>
+    <col min="5" max="5" width="21.5703125" style="32"/>
+    <col min="6" max="250" width="11.42578125" style="32"/>
+    <col min="251" max="251" width="2.7109375" style="32"/>
+    <col min="252" max="252" width="19" style="32"/>
+    <col min="253" max="253" width="19.5703125" style="32"/>
+    <col min="254" max="254" width="14.28515625" style="32"/>
+    <col min="255" max="255" width="19.42578125" style="32"/>
+    <col min="256" max="256" width="56" style="32"/>
+    <col min="257" max="257" width="21.5703125" style="32"/>
+    <col min="258" max="258" width="23" style="32"/>
+    <col min="259" max="259" width="16.5703125" style="32"/>
+    <col min="260" max="260" width="14.28515625" style="32"/>
+    <col min="261" max="261" width="15.28515625" style="32"/>
+    <col min="262" max="506" width="11.42578125" style="32"/>
+    <col min="507" max="507" width="2.7109375" style="32"/>
+    <col min="508" max="508" width="19" style="32"/>
+    <col min="509" max="509" width="19.5703125" style="32"/>
+    <col min="510" max="510" width="14.28515625" style="32"/>
+    <col min="511" max="511" width="19.42578125" style="32"/>
+    <col min="512" max="512" width="56" style="32"/>
+    <col min="513" max="513" width="21.5703125" style="32"/>
+    <col min="514" max="514" width="23" style="32"/>
+    <col min="515" max="515" width="16.5703125" style="32"/>
+    <col min="516" max="516" width="14.28515625" style="32"/>
+    <col min="517" max="517" width="15.28515625" style="32"/>
+    <col min="518" max="762" width="11.42578125" style="32"/>
+    <col min="763" max="763" width="2.7109375" style="32"/>
+    <col min="764" max="764" width="19" style="32"/>
+    <col min="765" max="765" width="19.5703125" style="32"/>
+    <col min="766" max="766" width="14.28515625" style="32"/>
+    <col min="767" max="767" width="19.42578125" style="32"/>
+    <col min="768" max="768" width="56" style="32"/>
+    <col min="769" max="769" width="21.5703125" style="32"/>
+    <col min="770" max="770" width="23" style="32"/>
+    <col min="771" max="771" width="16.5703125" style="32"/>
+    <col min="772" max="772" width="14.28515625" style="32"/>
+    <col min="773" max="773" width="15.28515625" style="32"/>
+    <col min="774" max="1018" width="11.42578125" style="32"/>
+    <col min="1019" max="1019" width="2.7109375" style="32"/>
+    <col min="1020" max="1020" width="19" style="32"/>
+    <col min="1021" max="1021" width="19.5703125" style="32"/>
+    <col min="1022" max="1022" width="14.28515625" style="32"/>
+    <col min="1023" max="1023" width="19.42578125" style="32"/>
     <col min="1024" max="1025" width="19.42578125"/>
   </cols>
   <sheetData>
@@ -21792,13 +21816,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -22819,19 +22843,19 @@
       <c r="AMI2"/>
     </row>
     <row r="3" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="33" t="s">
         <v>52</v>
       </c>
       <c r="F3"/>
@@ -23854,19 +23878,19 @@
       <c r="AMI3"/>
     </row>
     <row r="4" spans="1:1023" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="36" t="s">
         <v>130</v>
       </c>
       <c r="F4"/>
@@ -24888,54 +24912,74 @@
       <c r="AMH4"/>
       <c r="AMI4"/>
     </row>
-    <row r="5" spans="1:1023" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="48"/>
+    <row r="5" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="6" spans="1:1023" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="48"/>
+    <row r="6" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="7" spans="1:1023" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="48"/>
+    <row r="7" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
     </row>
-    <row r="8" spans="1:1023" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48"/>
+    <row r="8" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
     </row>
-    <row r="9" spans="1:1023" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="48"/>
+    <row r="9" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24964,16 +25008,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="50"/>
-    <col min="2" max="2" width="12.7109375" style="50"/>
-    <col min="3" max="3" width="22.28515625" style="50"/>
-    <col min="4" max="4" width="11.7109375" style="50"/>
-    <col min="5" max="5" width="16" style="50"/>
-    <col min="6" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="26" style="50"/>
-    <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="10" max="10" width="13.7109375" style="50"/>
-    <col min="11" max="1023" width="11.42578125" style="50"/>
+    <col min="1" max="1" width="32.42578125" style="38"/>
+    <col min="2" max="2" width="12.7109375" style="38"/>
+    <col min="3" max="3" width="22.28515625" style="38"/>
+    <col min="4" max="4" width="11.7109375" style="38"/>
+    <col min="5" max="5" width="16" style="38"/>
+    <col min="6" max="6" width="11.42578125" style="38"/>
+    <col min="7" max="7" width="26" style="38"/>
+    <col min="8" max="9" width="11.42578125" style="38"/>
+    <col min="10" max="10" width="13.7109375" style="38"/>
+    <col min="11" max="1023" width="11.42578125" style="38"/>
     <col min="1024" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
@@ -24988,200 +25032,200 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="12" t="s">
         <v>60</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="113">
         <v>2</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="113">
         <v>1</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="113">
         <v>1</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="41" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="35"/>
-      <c r="J7" s="53"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="23"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="35"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="35"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="35"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="35"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="35"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25210,67 +25254,67 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="56"/>
-    <col min="2" max="2" width="35.85546875" style="56"/>
-    <col min="3" max="3" width="13.7109375" style="56"/>
-    <col min="4" max="4" width="19.140625" style="56"/>
-    <col min="5" max="5" width="20" style="56"/>
-    <col min="6" max="6" width="16.42578125" style="56"/>
-    <col min="7" max="7" width="45.7109375" style="44"/>
-    <col min="8" max="8" width="31.7109375" style="44"/>
-    <col min="9" max="9" width="22.140625" style="44"/>
-    <col min="10" max="250" width="16" style="44"/>
-    <col min="251" max="251" width="3.85546875" style="44"/>
-    <col min="252" max="252" width="12.42578125" style="44"/>
-    <col min="253" max="260" width="8.5703125" style="44"/>
-    <col min="261" max="261" width="19.140625" style="44"/>
-    <col min="262" max="262" width="16.140625" style="44"/>
-    <col min="263" max="263" width="23.7109375" style="44"/>
-    <col min="264" max="264" width="3.85546875" style="44"/>
-    <col min="265" max="506" width="0" style="44" hidden="1"/>
-    <col min="507" max="507" width="3.85546875" style="44"/>
-    <col min="508" max="508" width="39.28515625" style="44"/>
-    <col min="509" max="509" width="10.85546875" style="44"/>
-    <col min="510" max="510" width="20.85546875" style="44"/>
-    <col min="511" max="511" width="15.85546875" style="44"/>
-    <col min="512" max="512" width="15.5703125" style="44"/>
-    <col min="513" max="513" width="12.7109375" style="44"/>
-    <col min="514" max="514" width="13" style="44"/>
-    <col min="515" max="515" width="13.42578125" style="44"/>
-    <col min="516" max="516" width="14.28515625" style="44"/>
-    <col min="517" max="517" width="19.140625" style="44"/>
-    <col min="518" max="518" width="16.140625" style="44"/>
-    <col min="519" max="519" width="23.7109375" style="44"/>
-    <col min="520" max="520" width="3.85546875" style="44"/>
-    <col min="521" max="762" width="0" style="44" hidden="1"/>
-    <col min="763" max="763" width="3.85546875" style="44"/>
-    <col min="764" max="764" width="39.28515625" style="44"/>
-    <col min="765" max="765" width="10.85546875" style="44"/>
-    <col min="766" max="766" width="20.85546875" style="44"/>
-    <col min="767" max="767" width="15.85546875" style="44"/>
-    <col min="768" max="768" width="15.5703125" style="44"/>
-    <col min="769" max="769" width="12.7109375" style="44"/>
-    <col min="770" max="770" width="13" style="44"/>
-    <col min="771" max="771" width="13.42578125" style="44"/>
-    <col min="772" max="772" width="14.28515625" style="44"/>
-    <col min="773" max="773" width="19.140625" style="44"/>
-    <col min="774" max="774" width="16.140625" style="44"/>
-    <col min="775" max="775" width="23.7109375" style="44"/>
-    <col min="776" max="776" width="3.85546875" style="44"/>
-    <col min="777" max="1018" width="0" style="44" hidden="1"/>
-    <col min="1019" max="1019" width="3.85546875" style="44"/>
-    <col min="1020" max="1020" width="39.28515625" style="44"/>
-    <col min="1021" max="1021" width="10.85546875" style="44"/>
-    <col min="1022" max="1022" width="20.85546875" style="44"/>
-    <col min="1023" max="1023" width="15.85546875" style="44"/>
-    <col min="1024" max="1025" width="15.5703125" style="44"/>
+    <col min="1" max="1" width="3.85546875" style="44"/>
+    <col min="2" max="2" width="35.85546875" style="44"/>
+    <col min="3" max="3" width="13.7109375" style="44"/>
+    <col min="4" max="4" width="19.140625" style="44"/>
+    <col min="5" max="5" width="20" style="44"/>
+    <col min="6" max="6" width="16.42578125" style="44"/>
+    <col min="7" max="7" width="45.7109375" style="32"/>
+    <col min="8" max="8" width="31.7109375" style="32"/>
+    <col min="9" max="9" width="22.140625" style="32"/>
+    <col min="10" max="250" width="16" style="32"/>
+    <col min="251" max="251" width="3.85546875" style="32"/>
+    <col min="252" max="252" width="12.42578125" style="32"/>
+    <col min="253" max="260" width="8.5703125" style="32"/>
+    <col min="261" max="261" width="19.140625" style="32"/>
+    <col min="262" max="262" width="16.140625" style="32"/>
+    <col min="263" max="263" width="23.7109375" style="32"/>
+    <col min="264" max="264" width="3.85546875" style="32"/>
+    <col min="265" max="506" width="0" style="32" hidden="1"/>
+    <col min="507" max="507" width="3.85546875" style="32"/>
+    <col min="508" max="508" width="39.28515625" style="32"/>
+    <col min="509" max="509" width="10.85546875" style="32"/>
+    <col min="510" max="510" width="20.85546875" style="32"/>
+    <col min="511" max="511" width="15.85546875" style="32"/>
+    <col min="512" max="512" width="15.5703125" style="32"/>
+    <col min="513" max="513" width="12.7109375" style="32"/>
+    <col min="514" max="514" width="13" style="32"/>
+    <col min="515" max="515" width="13.42578125" style="32"/>
+    <col min="516" max="516" width="14.28515625" style="32"/>
+    <col min="517" max="517" width="19.140625" style="32"/>
+    <col min="518" max="518" width="16.140625" style="32"/>
+    <col min="519" max="519" width="23.7109375" style="32"/>
+    <col min="520" max="520" width="3.85546875" style="32"/>
+    <col min="521" max="762" width="0" style="32" hidden="1"/>
+    <col min="763" max="763" width="3.85546875" style="32"/>
+    <col min="764" max="764" width="39.28515625" style="32"/>
+    <col min="765" max="765" width="10.85546875" style="32"/>
+    <col min="766" max="766" width="20.85546875" style="32"/>
+    <col min="767" max="767" width="15.85546875" style="32"/>
+    <col min="768" max="768" width="15.5703125" style="32"/>
+    <col min="769" max="769" width="12.7109375" style="32"/>
+    <col min="770" max="770" width="13" style="32"/>
+    <col min="771" max="771" width="13.42578125" style="32"/>
+    <col min="772" max="772" width="14.28515625" style="32"/>
+    <col min="773" max="773" width="19.140625" style="32"/>
+    <col min="774" max="774" width="16.140625" style="32"/>
+    <col min="775" max="775" width="23.7109375" style="32"/>
+    <col min="776" max="776" width="3.85546875" style="32"/>
+    <col min="777" max="1018" width="0" style="32" hidden="1"/>
+    <col min="1019" max="1019" width="3.85546875" style="32"/>
+    <col min="1020" max="1020" width="39.28515625" style="32"/>
+    <col min="1021" max="1021" width="10.85546875" style="32"/>
+    <col min="1022" max="1022" width="20.85546875" style="32"/>
+    <col min="1023" max="1023" width="15.85546875" style="32"/>
+    <col min="1024" max="1025" width="15.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
+      <c r="A1" s="45"/>
       <c r="B1"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
@@ -26292,124 +26336,124 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="57" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1024" s="45" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="IR2" s="4" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="IR2" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="IS2" s="4"/>
-      <c r="IT2" s="4"/>
-      <c r="IU2" s="4"/>
-      <c r="IV2" s="4"/>
-      <c r="IW2" s="4"/>
-      <c r="IX2" s="4"/>
-      <c r="IY2" s="4"/>
-      <c r="IZ2" s="4"/>
-      <c r="JA2" s="4"/>
+      <c r="IS2" s="134"/>
+      <c r="IT2" s="134"/>
+      <c r="IU2" s="134"/>
+      <c r="IV2" s="134"/>
+      <c r="IW2" s="134"/>
+      <c r="IX2" s="134"/>
+      <c r="IY2" s="134"/>
+      <c r="IZ2" s="134"/>
+      <c r="JA2" s="134"/>
     </row>
-    <row r="3" spans="1:1024" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="AE3" s="64" t="s">
+    <row r="3" spans="1:1024" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="AE3" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AF3" s="64" t="s">
+      <c r="AF3" s="52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:1024" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="69" t="s">
+      <c r="AE4" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AF4" s="69" t="s">
+      <c r="AF4" s="57" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="70">
+      <c r="A5" s="58">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="58">
         <v>5</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="60">
         <v>0.01</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="58">
         <f t="shared" ref="E5:E6" si="0">PRODUCT(C5:D5)</f>
         <v>0.05</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="58">
         <v>3</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="63" t="s">
         <v>125</v>
       </c>
       <c r="L5"/>
@@ -27427,38 +27471,38 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="70">
+      <c r="A6" s="58">
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="58">
         <v>5</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="60">
         <v>0.05</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="58">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="58">
         <v>3</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="63" t="s">
         <v>125</v>
       </c>
       <c r="L6"/>
@@ -28476,21 +28520,21 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+      <c r="A7" s="58">
         <v>3</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="70">
+      <c r="B7" s="59"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="58">
         <v>0</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="75"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -29506,21 +29550,21 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70">
+      <c r="A8" s="58">
         <v>4</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="70">
+      <c r="B8" s="59"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="58">
         <v>0</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -29762,14 +29806,14 @@
       <c r="IP8"/>
       <c r="IQ8"/>
       <c r="IR8"/>
-      <c r="IS8" s="76"/>
-      <c r="IT8" s="3"/>
-      <c r="IU8" s="3"/>
-      <c r="IV8" s="77"/>
-      <c r="IW8" s="78"/>
-      <c r="IX8" s="78"/>
-      <c r="IY8" s="78"/>
-      <c r="IZ8" s="79"/>
+      <c r="IS8" s="64"/>
+      <c r="IT8" s="135"/>
+      <c r="IU8" s="135"/>
+      <c r="IV8" s="65"/>
+      <c r="IW8" s="66"/>
+      <c r="IX8" s="66"/>
+      <c r="IY8" s="66"/>
+      <c r="IZ8" s="67"/>
       <c r="JA8"/>
       <c r="JB8"/>
       <c r="JC8"/>
@@ -30536,21 +30580,21 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+      <c r="A9" s="58">
         <v>5</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="70">
+      <c r="B9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="58">
         <v>0</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -30792,32 +30836,32 @@
       <c r="IP9"/>
       <c r="IQ9"/>
       <c r="IR9"/>
-      <c r="IS9" s="2" t="s">
+      <c r="IS9" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="IT9" s="80" t="s">
+      <c r="IT9" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="IU9" s="81">
+      <c r="IU9" s="69">
         <v>0.9</v>
       </c>
-      <c r="IV9" s="82">
+      <c r="IV9" s="70">
         <f>(IV14*IU9)</f>
         <v>0.9</v>
       </c>
-      <c r="IW9" s="83">
+      <c r="IW9" s="71">
         <f>(IW14*IU9)</f>
         <v>1.8</v>
       </c>
-      <c r="IX9" s="84">
+      <c r="IX9" s="72">
         <f>(IX14*IU9)</f>
         <v>2.7</v>
       </c>
-      <c r="IY9" s="85">
+      <c r="IY9" s="73">
         <f>(IY14*IU9)</f>
         <v>3.6</v>
       </c>
-      <c r="IZ9" s="86">
+      <c r="IZ9" s="74">
         <f>(IZ14*IU9)</f>
         <v>4.5</v>
       </c>
@@ -31587,21 +31631,21 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70">
+      <c r="A10" s="58">
         <v>6</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="70">
+      <c r="B10" s="59"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="58">
         <v>0</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -31843,30 +31887,30 @@
       <c r="IP10"/>
       <c r="IQ10"/>
       <c r="IR10"/>
-      <c r="IS10" s="2"/>
-      <c r="IT10" s="80" t="s">
+      <c r="IS10" s="136"/>
+      <c r="IT10" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="IU10" s="81">
+      <c r="IU10" s="69">
         <v>0.7</v>
       </c>
-      <c r="IV10" s="87">
+      <c r="IV10" s="75">
         <f>(IV14*IU10)</f>
         <v>0.7</v>
       </c>
-      <c r="IW10" s="88">
+      <c r="IW10" s="76">
         <f>(IW14*IU10)</f>
         <v>1.4</v>
       </c>
-      <c r="IX10" s="89">
+      <c r="IX10" s="77">
         <f>(IX14*IU10)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="IY10" s="90">
+      <c r="IY10" s="78">
         <f>(IY14*IU10)</f>
         <v>2.8</v>
       </c>
-      <c r="IZ10" s="91">
+      <c r="IZ10" s="79">
         <f>(IZ14*IU10)</f>
         <v>3.5</v>
       </c>
@@ -32636,22 +32680,22 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70">
+      <c r="A11" s="58">
         <v>7</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="70">
+      <c r="B11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="58">
         <f t="shared" ref="E11:E24" si="1">PRODUCT(C11:D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -32893,30 +32937,30 @@
       <c r="IP11"/>
       <c r="IQ11"/>
       <c r="IR11"/>
-      <c r="IS11" s="2"/>
-      <c r="IT11" s="80" t="s">
+      <c r="IS11" s="136"/>
+      <c r="IT11" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="IU11" s="81">
+      <c r="IU11" s="69">
         <v>0.5</v>
       </c>
-      <c r="IV11" s="87">
+      <c r="IV11" s="75">
         <f>(IV14*IU11)</f>
         <v>0.5</v>
       </c>
-      <c r="IW11" s="92">
+      <c r="IW11" s="80">
         <f>(IW14*IU11)</f>
         <v>1</v>
       </c>
-      <c r="IX11" s="88">
+      <c r="IX11" s="76">
         <f>(IX14*IU11)</f>
         <v>1.5</v>
       </c>
-      <c r="IY11" s="88">
+      <c r="IY11" s="76">
         <f>(IY14*IU11)</f>
         <v>2</v>
       </c>
-      <c r="IZ11" s="93">
+      <c r="IZ11" s="81">
         <f>(IZ14*IU11)</f>
         <v>2.5</v>
       </c>
@@ -33686,22 +33730,22 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70">
+      <c r="A12" s="58">
         <v>8</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="70">
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="75"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -33943,30 +33987,30 @@
       <c r="IP12"/>
       <c r="IQ12"/>
       <c r="IR12"/>
-      <c r="IS12" s="2"/>
-      <c r="IT12" s="80" t="s">
+      <c r="IS12" s="136"/>
+      <c r="IT12" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="IU12" s="81">
+      <c r="IU12" s="69">
         <v>0.3</v>
       </c>
-      <c r="IV12" s="94">
+      <c r="IV12" s="82">
         <f>(IV14*IU12)</f>
         <v>0.3</v>
       </c>
-      <c r="IW12" s="95">
+      <c r="IW12" s="83">
         <f>(IW14*IU12)</f>
         <v>0.6</v>
       </c>
-      <c r="IX12" s="88">
+      <c r="IX12" s="76">
         <f>(IX14*IU12)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="IY12" s="88">
+      <c r="IY12" s="76">
         <f>(IY14*IU12)</f>
         <v>1.2</v>
       </c>
-      <c r="IZ12" s="96">
+      <c r="IZ12" s="84">
         <f>(IZ14*IU12)</f>
         <v>1.5</v>
       </c>
@@ -34736,22 +34780,22 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+      <c r="A13" s="58">
         <v>9</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="70">
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -34993,30 +35037,30 @@
       <c r="IP13"/>
       <c r="IQ13"/>
       <c r="IR13"/>
-      <c r="IS13" s="2"/>
-      <c r="IT13" s="80" t="s">
+      <c r="IS13" s="136"/>
+      <c r="IT13" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="IU13" s="98">
+      <c r="IU13" s="86">
         <v>0.1</v>
       </c>
-      <c r="IV13" s="99">
+      <c r="IV13" s="87">
         <f>(IV14*IU13)</f>
         <v>0.1</v>
       </c>
-      <c r="IW13" s="100">
+      <c r="IW13" s="88">
         <f>(IW14*IU13)</f>
         <v>0.2</v>
       </c>
-      <c r="IX13" s="101">
+      <c r="IX13" s="89">
         <f>(IX14*IV13)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="IY13" s="101">
+      <c r="IY13" s="89">
         <f>(IY14*IU13)</f>
         <v>0.4</v>
       </c>
-      <c r="IZ13" s="102">
+      <c r="IZ13" s="90">
         <f>(IZ14*IU13)</f>
         <v>0.5</v>
       </c>
@@ -35786,22 +35830,22 @@
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70">
+      <c r="A14" s="58">
         <v>10</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="70">
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -36043,22 +36087,22 @@
       <c r="IP14"/>
       <c r="IQ14"/>
       <c r="IR14"/>
-      <c r="IS14" s="104"/>
-      <c r="IT14" s="105"/>
-      <c r="IU14" s="80"/>
-      <c r="IV14" s="81">
+      <c r="IS14" s="92"/>
+      <c r="IT14" s="93"/>
+      <c r="IU14" s="68"/>
+      <c r="IV14" s="69">
         <v>1</v>
       </c>
-      <c r="IW14" s="81">
+      <c r="IW14" s="69">
         <v>2</v>
       </c>
-      <c r="IX14" s="81">
+      <c r="IX14" s="69">
         <v>3</v>
       </c>
-      <c r="IY14" s="81">
+      <c r="IY14" s="69">
         <v>4</v>
       </c>
-      <c r="IZ14" s="106">
+      <c r="IZ14" s="94">
         <v>5</v>
       </c>
       <c r="JA14"/>
@@ -36827,22 +36871,22 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70">
+      <c r="A15" s="58">
         <v>11</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="70">
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="75"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -37084,22 +37128,22 @@
       <c r="IP15"/>
       <c r="IQ15"/>
       <c r="IR15"/>
-      <c r="IS15" s="104"/>
-      <c r="IT15" s="105"/>
-      <c r="IU15" s="105"/>
-      <c r="IV15" s="80" t="s">
+      <c r="IS15" s="92"/>
+      <c r="IT15" s="93"/>
+      <c r="IU15" s="93"/>
+      <c r="IV15" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="IW15" s="80" t="s">
+      <c r="IW15" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="IX15" s="80" t="s">
+      <c r="IX15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="IY15" s="80" t="s">
+      <c r="IY15" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="IZ15" s="107" t="s">
+      <c r="IZ15" s="95" t="s">
         <v>80</v>
       </c>
       <c r="JA15"/>
@@ -37868,22 +37912,22 @@
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70">
+      <c r="A16" s="58">
         <v>12</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="70">
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -38125,16 +38169,16 @@
       <c r="IP16"/>
       <c r="IQ16"/>
       <c r="IR16"/>
-      <c r="IS16" s="104"/>
-      <c r="IT16" s="105"/>
-      <c r="IU16" s="81"/>
-      <c r="IV16" s="1" t="s">
+      <c r="IS16" s="92"/>
+      <c r="IT16" s="93"/>
+      <c r="IU16" s="69"/>
+      <c r="IV16" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="IW16" s="1"/>
-      <c r="IX16" s="1"/>
-      <c r="IY16" s="1"/>
-      <c r="IZ16" s="1"/>
+      <c r="IW16" s="137"/>
+      <c r="IX16" s="137"/>
+      <c r="IY16" s="137"/>
+      <c r="IZ16" s="137"/>
       <c r="JA16"/>
       <c r="JB16"/>
       <c r="JC16"/>
@@ -38901,22 +38945,22 @@
       <c r="AMJ16"/>
     </row>
     <row r="17" spans="1:1024" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="70">
+      <c r="A17" s="58">
         <v>13</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="70">
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="75"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
@@ -39158,14 +39202,14 @@
       <c r="IP17"/>
       <c r="IQ17"/>
       <c r="IR17"/>
-      <c r="IS17" s="104"/>
-      <c r="IT17" s="105"/>
-      <c r="IU17" s="105"/>
-      <c r="IV17" s="105"/>
-      <c r="IW17" s="105"/>
-      <c r="IX17" s="105"/>
-      <c r="IY17" s="105"/>
-      <c r="IZ17" s="108"/>
+      <c r="IS17" s="92"/>
+      <c r="IT17" s="93"/>
+      <c r="IU17" s="93"/>
+      <c r="IV17" s="93"/>
+      <c r="IW17" s="93"/>
+      <c r="IX17" s="93"/>
+      <c r="IY17" s="93"/>
+      <c r="IZ17" s="96"/>
       <c r="JA17"/>
       <c r="JB17"/>
       <c r="JC17"/>
@@ -39932,22 +39976,22 @@
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70">
+      <c r="A18" s="58">
         <v>14</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="70">
+      <c r="B18" s="59"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -40189,14 +40233,14 @@
       <c r="IP18"/>
       <c r="IQ18"/>
       <c r="IR18"/>
-      <c r="IS18" s="104"/>
-      <c r="IT18" s="105"/>
-      <c r="IU18" s="109"/>
-      <c r="IV18" s="109"/>
-      <c r="IW18" s="109"/>
-      <c r="IX18" s="109"/>
-      <c r="IY18" s="109"/>
-      <c r="IZ18" s="110"/>
+      <c r="IS18" s="92"/>
+      <c r="IT18" s="93"/>
+      <c r="IU18" s="97"/>
+      <c r="IV18" s="97"/>
+      <c r="IW18" s="97"/>
+      <c r="IX18" s="97"/>
+      <c r="IY18" s="97"/>
+      <c r="IZ18" s="98"/>
       <c r="JA18"/>
       <c r="JB18"/>
       <c r="JC18"/>
@@ -40963,22 +41007,22 @@
       <c r="AMJ18"/>
     </row>
     <row r="19" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70">
+      <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="70">
+      <c r="B19" s="59"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -41220,16 +41264,16 @@
       <c r="IP19"/>
       <c r="IQ19"/>
       <c r="IR19"/>
-      <c r="IS19" s="125" t="s">
+      <c r="IS19" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="IT19" s="125"/>
-      <c r="IU19" s="109"/>
-      <c r="IV19" s="109"/>
-      <c r="IW19" s="109"/>
-      <c r="IX19" s="109"/>
-      <c r="IY19" s="109"/>
-      <c r="IZ19" s="110"/>
+      <c r="IT19" s="131"/>
+      <c r="IU19" s="97"/>
+      <c r="IV19" s="97"/>
+      <c r="IW19" s="97"/>
+      <c r="IX19" s="97"/>
+      <c r="IY19" s="97"/>
+      <c r="IZ19" s="98"/>
       <c r="JA19"/>
       <c r="JB19"/>
       <c r="JC19"/>
@@ -41996,22 +42040,22 @@
       <c r="AMJ19"/>
     </row>
     <row r="20" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70">
+      <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="70">
+      <c r="B20" s="59"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -42253,18 +42297,18 @@
       <c r="IP20"/>
       <c r="IQ20"/>
       <c r="IR20"/>
-      <c r="IS20" s="111" t="s">
+      <c r="IS20" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="IT20" s="112"/>
-      <c r="IU20" s="109"/>
-      <c r="IV20" s="126" t="s">
+      <c r="IT20" s="100"/>
+      <c r="IU20" s="97"/>
+      <c r="IV20" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="IW20" s="126"/>
-      <c r="IX20" s="126"/>
-      <c r="IY20" s="126"/>
-      <c r="IZ20" s="126"/>
+      <c r="IW20" s="132"/>
+      <c r="IX20" s="132"/>
+      <c r="IY20" s="132"/>
+      <c r="IZ20" s="132"/>
       <c r="JA20"/>
       <c r="JB20"/>
       <c r="JC20"/>
@@ -43031,22 +43075,22 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70">
+      <c r="A21" s="58">
         <v>17</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="70">
+      <c r="B21" s="59"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="75"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -43288,18 +43332,18 @@
       <c r="IP21"/>
       <c r="IQ21"/>
       <c r="IR21"/>
-      <c r="IS21" s="111" t="s">
+      <c r="IS21" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="IT21" s="113"/>
-      <c r="IU21" s="109"/>
-      <c r="IV21" s="126" t="s">
+      <c r="IT21" s="101"/>
+      <c r="IU21" s="97"/>
+      <c r="IV21" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="IW21" s="126"/>
-      <c r="IX21" s="126"/>
-      <c r="IY21" s="126"/>
-      <c r="IZ21" s="126"/>
+      <c r="IW21" s="132"/>
+      <c r="IX21" s="132"/>
+      <c r="IY21" s="132"/>
+      <c r="IZ21" s="132"/>
       <c r="JA21"/>
       <c r="JB21"/>
       <c r="JC21"/>
@@ -44066,22 +44110,22 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70">
+      <c r="A22" s="58">
         <v>18</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="70">
+      <c r="B22" s="59"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -44323,18 +44367,18 @@
       <c r="IP22"/>
       <c r="IQ22"/>
       <c r="IR22"/>
-      <c r="IS22" s="111" t="s">
+      <c r="IS22" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="IT22" s="114"/>
-      <c r="IU22" s="109"/>
-      <c r="IV22" s="126" t="s">
+      <c r="IT22" s="102"/>
+      <c r="IU22" s="97"/>
+      <c r="IV22" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="IW22" s="126"/>
-      <c r="IX22" s="126"/>
-      <c r="IY22" s="126"/>
-      <c r="IZ22" s="126"/>
+      <c r="IW22" s="132"/>
+      <c r="IX22" s="132"/>
+      <c r="IY22" s="132"/>
+      <c r="IZ22" s="132"/>
       <c r="JA22"/>
       <c r="JB22"/>
       <c r="JC22"/>
@@ -45101,22 +45145,22 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70">
+      <c r="A23" s="58">
         <v>19</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="70">
+      <c r="B23" s="59"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -45358,14 +45402,14 @@
       <c r="IP23"/>
       <c r="IQ23"/>
       <c r="IR23"/>
-      <c r="IS23" s="115"/>
-      <c r="IT23" s="116"/>
-      <c r="IU23" s="117"/>
-      <c r="IV23" s="117"/>
-      <c r="IW23" s="117"/>
-      <c r="IX23" s="117"/>
-      <c r="IY23" s="117"/>
-      <c r="IZ23" s="118"/>
+      <c r="IS23" s="103"/>
+      <c r="IT23" s="104"/>
+      <c r="IU23" s="105"/>
+      <c r="IV23" s="105"/>
+      <c r="IW23" s="105"/>
+      <c r="IX23" s="105"/>
+      <c r="IY23" s="105"/>
+      <c r="IZ23" s="106"/>
       <c r="JA23"/>
       <c r="JB23"/>
       <c r="JC23"/>
@@ -46131,31 +46175,31 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="119" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70">
+    <row r="24" spans="1:1024" s="107" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
         <v>20</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="70">
+      <c r="B24" s="59"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -47176,12 +47220,12 @@
       <c r="AMJ25"/>
     </row>
     <row r="26" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -48202,12 +48246,12 @@
       <c r="AMJ26"/>
     </row>
     <row r="27" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -49228,12 +49272,12 @@
       <c r="AMJ27"/>
     </row>
     <row r="28" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -50254,12 +50298,12 @@
       <c r="AMJ28"/>
     </row>
     <row r="29" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="120"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -51280,12 +51324,12 @@
       <c r="AMJ29"/>
     </row>
     <row r="30" spans="1:1024" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="120"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="108"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -53331,191 +53375,191 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="38" spans="1:32" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
+    <row r="38" spans="1:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
     </row>
-    <row r="39" spans="1:32" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
+    <row r="39" spans="1:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
     </row>
-    <row r="40" spans="1:32" s="122" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
+    <row r="40" spans="1:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="57"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="122"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="122"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="57"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="57"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="9">
